--- a/Enterprise Solutions/models/Financials.xlsx
+++ b/Enterprise Solutions/models/Financials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewmarshall/Documents/KT.tools2023/Enterprise Solutions/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9CA09D-D11A-A243-B448-11FFA82CB3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41041CC9-C2AD-0443-B945-82ED8E6597C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10180" yWindow="500" windowWidth="28220" windowHeight="20460" activeTab="1" xr2:uid="{0CBA5AE6-886D-9F4C-A3FB-8C72DEECE69B}"/>
   </bookViews>
